--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -132,7 +132,7 @@
     <comment ref="M1" authorId="1">
       <text>
         <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
+dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
 internal metadata field that is just used for ingest.</t>
       </text>
     </comment>
@@ -142,8 +142,8 @@
 a single dataset upload this might be "." where as for a data upload containing
 multiple datasets, this would be the directory name for the respective dataset.
 For instance, if the data is within a directory called "TEST001-RK" use syntax
-"/TEST001-RK/" for this field. If there are multiple directory levels, use the
-format "/TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
+"./TEST001-RK" for this field. If there are multiple directory levels, use the
+format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
 single dataset's data is stored. This is an internal metadata field that is just
 used for ingest.</t>
       </text>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="341">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -626,6 +626,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -797,18 +803,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -827,6 +839,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -869,36 +893,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -1034,45 +1040,45 @@
     <t>barcode_read</t>
   </si>
   <si>
-    <t>Read 1</t>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
+    <t>Read 2 (R2)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
+  </si>
+  <si>
+    <t>barcode_size</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>umi_offset</t>
+  </si>
+  <si>
+    <t>umi_read</t>
+  </si>
+  <si>
+    <t>Read 1 (R1)</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
   </si>
   <si>
-    <t>Read 2</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
-    <t>barcode_size</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>umi_offset</t>
-  </si>
-  <si>
-    <t>umi_read</t>
-  </si>
-  <si>
     <t>umi_size</t>
   </si>
   <si>
@@ -1397,7 +1403,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-05T09:35:56-07:00</t>
+    <t>2023-10-06T19:20:43-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1592,37 +1598,37 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q1" t="s" s="1">
         <v>220</v>
@@ -1634,96 +1640,96 @@
         <v>227</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -1732,7 +1738,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1761,7 +1767,7 @@
       <formula1>'barcode_offset'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_read'!$A$1:$A$3</formula1>
+      <formula1>'barcode_read'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
@@ -1859,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1867,25 +1873,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1914,7 +1912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
@@ -1947,7 +1945,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
@@ -1970,23 +1968,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>219</v>
@@ -2007,27 +2005,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2045,42 +2043,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2098,10 +2096,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2119,10 +2117,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2140,10 +2138,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +2159,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2483,18 +2481,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2512,50 +2510,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2573,26 +2571,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2610,12 +2608,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2633,50 +2631,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2694,42 +2692,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -2747,98 +2745,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2856,18 +2854,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2891,30 +2889,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +2922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3008,6 +3006,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3025,12 +3031,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3048,114 +3054,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3173,258 +3179,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3442,42 +3448,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3495,26 +3501,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3532,17 +3538,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="368">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -809,12 +809,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -947,6 +959,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -1028,6 +1052,9 @@
     <t>barcode_offset</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -1040,6 +1067,12 @@
     <t>barcode_read</t>
   </si>
   <si>
+    <t>Read 1 (R1)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
+  </si>
+  <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
   </si>
   <si>
@@ -1073,12 +1106,6 @@
     <t>umi_read</t>
   </si>
   <si>
-    <t>Read 1 (R1)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
-  </si>
-  <si>
     <t>umi_size</t>
   </si>
   <si>
@@ -1217,18 +1244,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
   </si>
   <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
-    <t>Custom kit</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
   </si>
   <si>
@@ -1238,18 +1265,24 @@
     <t>sample_indexing_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
+  </si>
+  <si>
+    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
+  </si>
+  <si>
     <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
   </si>
   <si>
-    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
-  </si>
-  <si>
     <t>sample_indexing_set</t>
   </si>
   <si>
@@ -1262,6 +1295,36 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
   </si>
   <si>
@@ -1274,16 +1337,22 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
   </si>
   <si>
     <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
@@ -1310,18 +1379,18 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>HTX Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023734</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>HTX Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023734</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1331,16 +1400,34 @@
     <t>preparation_instrument_model</t>
   </si>
   <si>
+    <t>Sublimator</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023729</t>
+  </si>
+  <si>
+    <t>Chromium Controller</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019326</t>
+  </si>
+  <si>
     <t>Chromium X</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024537</t>
   </si>
   <si>
-    <t>Sublimator</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023729</t>
+    <t>AutoStainer XL</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023957</t>
+  </si>
+  <si>
+    <t>Visium CytAssist</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024570</t>
   </si>
   <si>
     <t>SunCollect Sprayer</t>
@@ -1355,12 +1442,6 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
-    <t>Chromium Controller</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_019326</t>
-  </si>
-  <si>
     <t>Chromium iX</t>
   </si>
   <si>
@@ -1403,7 +1484,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:20:43-07:00</t>
+    <t>2023-10-16T20:50:13-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1607,129 +1688,129 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>331</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1828,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1764,10 +1845,10 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$3</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_read'!$A$1:$A$2</formula1>
+      <formula1>'barcode_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
@@ -1835,7 +1916,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$3</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -1845,13 +1926,13 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$6</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$5</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$12</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_kit'!$A$1:$A$2</formula1>
@@ -1865,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1873,18 +1954,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1902,32 +1991,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1945,12 +2034,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1968,26 +2057,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2005,27 +2094,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2043,42 +2132,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2096,10 +2185,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2117,10 +2206,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2138,10 +2227,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2159,10 +2248,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2481,18 +2570,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2510,50 +2599,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2563,7 +2652,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2571,26 +2660,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2623,120 +2720,6 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2745,98 +2728,292 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2854,18 +3031,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2889,30 +3066,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="D1" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3348,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3431,6 +3608,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3448,42 +3657,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3501,26 +3710,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3739,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3538,17 +3747,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="369">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -419,6 +419,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -479,12 +485,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -1247,150 +1247,153 @@
     <t>Custom</t>
   </si>
   <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
+    <t>sample_indexing_kit</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
+  </si>
+  <si>
+    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
+  </si>
+  <si>
+    <t>sample_indexing_set</t>
+  </si>
+  <si>
+    <t>is_technical_replicate</t>
+  </si>
+  <si>
+    <t>expected_entity_capture_count</t>
+  </si>
+  <si>
+    <t>sequencing_reagent_kit</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>sequencing_read_format</t>
+  </si>
+  <si>
+    <t>sequencing_batch_id</t>
+  </si>
+  <si>
+    <t>capture_batch_id</t>
+  </si>
+  <si>
+    <t>preparation_instrument_vendor</t>
+  </si>
+  <si>
+    <t>HTX Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023734</t>
+  </si>
+  <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
-    <t>sample_indexing_kit</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
-  </si>
-  <si>
-    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
-  </si>
-  <si>
-    <t>sample_indexing_set</t>
-  </si>
-  <si>
-    <t>is_technical_replicate</t>
-  </si>
-  <si>
-    <t>expected_entity_capture_count</t>
-  </si>
-  <si>
-    <t>sequencing_reagent_kit</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
-    <t>sequencing_read_format</t>
-  </si>
-  <si>
-    <t>sequencing_batch_id</t>
-  </si>
-  <si>
-    <t>capture_batch_id</t>
-  </si>
-  <si>
-    <t>preparation_instrument_vendor</t>
-  </si>
-  <si>
-    <t>HTX Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023734</t>
-  </si>
-  <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1484,7 +1487,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:50:13-07:00</t>
+    <t>2023-10-20T15:01:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1799,18 +1802,18 @@
         <v>329</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2880,15 +2883,15 @@
         <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2922,18 +2925,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
@@ -2954,66 +2957,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3066,30 +3069,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="370">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -722,12 +722,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -740,6 +734,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -1379,6 +1379,12 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1391,9 +1397,6 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1487,7 +1490,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T15:01:53-07:00</t>
+    <t>2023-10-20T19:59:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1802,18 +1805,18 @@
         <v>329</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2840,26 +2843,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4">
@@ -2872,26 +2875,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2925,18 +2928,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -2957,66 +2960,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3069,30 +3072,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -47,11 +47,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -1490,7 +1491,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T19:59:59-07:00</t>
+    <t>2023-10-27T18:08:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="372">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1053,7 +1053,7 @@
     <t>barcode_offset</t>
   </si>
   <si>
-    <t>0</t>
+    <t>0,38,76</t>
   </si>
   <si>
     <t>Not applicable</t>
@@ -1065,6 +1065,9 @@
     <t>8</t>
   </si>
   <si>
+    <t>10,48,86</t>
+  </si>
+  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1104,6 +1107,9 @@
     <t>umi_offset</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>umi_read</t>
   </si>
   <si>
@@ -1491,7 +1497,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:08:59-07:00</t>
+    <t>2023-10-31T13:53:33-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1716,108 +1722,108 @@
         <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1858,7 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$4</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -1861,7 +1867,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$2</formula1>
+      <formula1>'umi_offset'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -1961,10 +1967,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -1972,15 +1978,15 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1998,12 +2004,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
@@ -2013,17 +2019,17 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2041,12 +2047,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2064,10 +2075,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -2075,15 +2086,15 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +2112,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -2116,12 +2127,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2139,42 +2150,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2192,10 +2203,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2213,10 +2224,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2234,10 +2245,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2255,10 +2266,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2577,18 +2588,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2606,50 +2617,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2667,10 +2678,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
@@ -2678,23 +2689,23 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2735,98 +2746,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2844,10 +2855,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
@@ -2863,23 +2874,23 @@
         <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6">
@@ -2892,10 +2903,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2924,23 +2935,23 @@
         <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -2961,66 +2972,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3038,18 +3049,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3073,30 +3084,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3757,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3772,6 +3783,11 @@
         <v>224</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="373">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1053,6 +1053,9 @@
     <t>barcode_offset</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>0,38,76</t>
   </si>
   <si>
@@ -1497,7 +1500,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-31T13:53:33-07:00</t>
+    <t>2023-10-31T14:33:40-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1722,108 +1725,108 @@
         <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1861,7 @@
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$5</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -1967,26 +1970,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2004,32 +2007,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2047,17 +2050,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2075,26 +2078,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2112,27 +2115,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2150,42 +2153,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2203,10 +2206,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2224,10 +2227,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2245,10 +2248,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2266,10 +2269,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2588,18 +2591,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2617,50 +2620,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2678,34 +2681,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2746,98 +2749,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2855,10 +2858,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
@@ -2871,26 +2874,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6">
@@ -2903,10 +2906,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2932,26 +2935,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -2972,66 +2975,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3049,18 +3052,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3084,30 +3087,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3760,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3788,6 +3791,11 @@
         <v>225</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="372">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1110,9 +1110,6 @@
     <t>umi_offset</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>umi_read</t>
   </si>
   <si>
@@ -1500,7 +1497,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-31T14:33:40-07:00</t>
+    <t>2023-11-01T15:16:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1734,99 +1731,99 @@
         <v>239</v>
       </c>
       <c r="S1" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="T1" t="s" s="1">
         <v>241</v>
       </c>
-      <c r="T1" t="s" s="1">
-        <v>242</v>
-      </c>
       <c r="U1" t="s" s="1">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V1" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="W1" t="s" s="1">
         <v>257</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>258</v>
       </c>
-      <c r="X1" t="s" s="1">
-        <v>259</v>
-      </c>
       <c r="Y1" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="Z1" t="s" s="1">
         <v>262</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>263</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>264</v>
       </c>
-      <c r="AB1" t="s" s="1">
-        <v>265</v>
-      </c>
       <c r="AC1" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="AD1" t="s" s="1">
         <v>268</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>269</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>270</v>
       </c>
-      <c r="AF1" t="s" s="1">
-        <v>271</v>
-      </c>
       <c r="AG1" t="s" s="1">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH1" t="s" s="1">
+        <v>278</v>
+      </c>
+      <c r="AI1" t="s" s="1">
         <v>279</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>280</v>
       </c>
-      <c r="AJ1" t="s" s="1">
-        <v>281</v>
-      </c>
       <c r="AK1" t="s" s="1">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL1" t="s" s="1">
+        <v>300</v>
+      </c>
+      <c r="AM1" t="s" s="1">
         <v>301</v>
       </c>
-      <c r="AM1" t="s" s="1">
+      <c r="AN1" t="s" s="1">
         <v>302</v>
       </c>
-      <c r="AN1" t="s" s="1">
+      <c r="AO1" t="s" s="1">
         <v>303</v>
       </c>
-      <c r="AO1" t="s" s="1">
-        <v>304</v>
-      </c>
       <c r="AP1" t="s" s="1">
+        <v>328</v>
+      </c>
+      <c r="AQ1" t="s" s="1">
         <v>329</v>
       </c>
-      <c r="AQ1" t="s" s="1">
+      <c r="AR1" t="s" s="1">
         <v>330</v>
       </c>
-      <c r="AR1" t="s" s="1">
+      <c r="AS1" t="s" s="1">
         <v>331</v>
       </c>
-      <c r="AS1" t="s" s="1">
-        <v>332</v>
-      </c>
       <c r="AT1" t="s" s="1">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU1" t="s" s="1">
+        <v>361</v>
+      </c>
+      <c r="AV1" t="s" s="1">
         <v>362</v>
-      </c>
-      <c r="AV1" t="s" s="1">
-        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1867,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$3</formula1>
+      <formula1>'umi_offset'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -2042,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2050,16 +2047,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2115,7 +2107,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -2130,12 +2122,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2153,42 +2145,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
         <v>251</v>
-      </c>
-      <c r="B3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
         <v>255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2206,10 +2198,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
         <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2227,10 +2219,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
         <v>266</v>
-      </c>
-      <c r="B1" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2248,10 +2240,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
         <v>266</v>
-      </c>
-      <c r="B1" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2269,10 +2261,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2591,18 +2583,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" t="s">
         <v>275</v>
-      </c>
-      <c r="B1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2620,50 +2612,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s">
         <v>282</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
         <v>284</v>
-      </c>
-      <c r="B2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
         <v>286</v>
-      </c>
-      <c r="B3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" t="s">
         <v>288</v>
-      </c>
-      <c r="B4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
         <v>290</v>
-      </c>
-      <c r="B5" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
         <v>292</v>
-      </c>
-      <c r="B6" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2681,10 +2673,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
         <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2">
@@ -2697,18 +2689,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
         <v>297</v>
-      </c>
-      <c r="B3" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" t="s">
         <v>299</v>
-      </c>
-      <c r="B4" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2749,98 +2741,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" t="s">
         <v>305</v>
-      </c>
-      <c r="B1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" t="s">
         <v>307</v>
-      </c>
-      <c r="B2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
         <v>309</v>
-      </c>
-      <c r="B3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
         <v>311</v>
-      </c>
-      <c r="B4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" t="s">
         <v>313</v>
-      </c>
-      <c r="B5" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
         <v>315</v>
-      </c>
-      <c r="B6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
         <v>317</v>
-      </c>
-      <c r="B7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
         <v>319</v>
-      </c>
-      <c r="B8" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
         <v>321</v>
-      </c>
-      <c r="B9" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" t="s">
         <v>323</v>
-      </c>
-      <c r="B10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
         <v>325</v>
-      </c>
-      <c r="B11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" t="s">
         <v>327</v>
-      </c>
-      <c r="B12" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2858,10 +2850,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
         <v>333</v>
-      </c>
-      <c r="B1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2">
@@ -2882,18 +2874,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" t="s">
         <v>335</v>
-      </c>
-      <c r="B4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
         <v>337</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6">
@@ -2906,10 +2898,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B7" t="s">
         <v>339</v>
-      </c>
-      <c r="B7" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2943,18 +2935,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" t="s">
         <v>342</v>
-      </c>
-      <c r="B3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
         <v>344</v>
-      </c>
-      <c r="B4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -2975,66 +2967,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
         <v>346</v>
-      </c>
-      <c r="B7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" t="s">
         <v>348</v>
-      </c>
-      <c r="B8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
         <v>350</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" t="s">
         <v>352</v>
-      </c>
-      <c r="B10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B11" t="s">
         <v>354</v>
-      </c>
-      <c r="B11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" t="s">
         <v>356</v>
-      </c>
-      <c r="B12" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
         <v>358</v>
-      </c>
-      <c r="B13" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" t="s">
         <v>360</v>
-      </c>
-      <c r="B14" t="s">
-        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3052,18 +3044,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s">
         <v>282</v>
-      </c>
-      <c r="B1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
         <v>286</v>
-      </c>
-      <c r="B2" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3087,30 +3079,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="374">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -414,12 +414,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -522,12 +516,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -546,6 +534,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -792,6 +786,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -846,6 +846,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -1497,7 +1503,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-01T15:16:18-07:00</t>
+    <t>2023-11-02T15:45:57-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1689,147 +1695,147 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1841,7 +1847,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1967,26 +1973,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2004,32 +2010,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2047,12 +2053,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2070,26 +2076,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2107,27 +2113,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2145,42 +2151,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2198,10 +2204,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2219,10 +2225,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2240,10 +2246,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2261,10 +2267,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2274,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,14 +2564,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2583,18 +2581,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2612,50 +2610,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2673,34 +2671,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2718,12 +2716,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2741,98 +2739,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2850,58 +2848,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2927,106 +2925,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3044,18 +3042,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3079,30 +3077,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -3120,90 +3118,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3221,12 +3219,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3244,114 +3242,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3361,7 +3359,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3369,290 +3367,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3670,42 +3684,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3723,26 +3737,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3760,32 +3774,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="376">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1239,6 +1239,18 @@
     <t>library_preparation_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
   </si>
   <si>
@@ -1251,10 +1263,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
+    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN-120267</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
   </si>
   <si>
     <t>Custom</t>
@@ -1269,12 +1281,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
     <t>sample_indexing_kit</t>
   </si>
   <si>
@@ -1503,7 +1509,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:45:57-07:00</t>
+    <t>2023-11-07T20:06:18-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1791,45 +1797,45 @@
         <v>282</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1938,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$6</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
@@ -2602,7 +2608,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2654,6 +2660,14 @@
       </c>
       <c r="B6" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2671,10 +2685,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
@@ -2687,18 +2701,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2739,98 +2753,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2848,10 +2862,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -2872,18 +2886,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -2896,10 +2910,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2933,18 +2947,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -2965,66 +2979,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3042,18 +3056,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -3077,30 +3091,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="376">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -486,12 +486,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -504,6 +498,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -516,12 +516,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
     <t>RNAseq (bulk)</t>
   </si>
   <si>
@@ -540,12 +534,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -582,6 +570,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -1215,6 +1209,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0010050</t>
   </si>
   <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000065</t>
+  </si>
+  <si>
     <t>library_layout</t>
   </si>
   <si>
@@ -1509,7 +1509,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:06:18-08:00</t>
+    <t>2023-11-22T10:26:16-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1701,88 +1701,88 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>222</v>
-      </c>
       <c r="P1" t="s" s="1">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R1" t="s" s="1">
+        <v>239</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>240</v>
+      </c>
+      <c r="T1" t="s" s="1">
         <v>241</v>
       </c>
-      <c r="S1" t="s" s="1">
-        <v>242</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>243</v>
-      </c>
       <c r="U1" t="s" s="1">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="V1" t="s" s="1">
+        <v>256</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>257</v>
+      </c>
+      <c r="X1" t="s" s="1">
         <v>258</v>
       </c>
-      <c r="W1" t="s" s="1">
-        <v>259</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>260</v>
-      </c>
       <c r="Y1" t="s" s="1">
+        <v>261</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>262</v>
+      </c>
+      <c r="AA1" t="s" s="1">
         <v>263</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>264</v>
       </c>
-      <c r="AA1" t="s" s="1">
-        <v>265</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>266</v>
-      </c>
       <c r="AC1" t="s" s="1">
+        <v>267</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>268</v>
+      </c>
+      <c r="AE1" t="s" s="1">
         <v>269</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>270</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>271</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>272</v>
       </c>
       <c r="AG1" t="s" s="1">
         <v>275</v>
@@ -1841,7 +1841,7 @@
   </sheetData>
   <dataValidations count="37">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1879,7 +1879,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$2</formula1>
+      <formula1>'umi_offset'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -1924,7 +1924,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AF2:AF1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_concentration_unit'!$A$1:$A$1</formula1>
+      <formula1>'library_concentration_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AG2:AG1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'library_layout'!$A$1:$A$2</formula1>
@@ -1979,26 +1979,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2016,32 +2016,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2059,12 +2059,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2082,26 +2087,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2119,27 +2124,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2157,42 +2162,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2210,10 +2215,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2231,10 +2236,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2252,10 +2257,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2270,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2273,9 +2278,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>273</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2286,7 +2299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2562,14 +2575,6 @@
       </c>
       <c r="B34" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2693,10 +2698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -2730,12 +2735,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2870,18 +2875,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -2902,10 +2907,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -2931,18 +2936,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -2963,18 +2968,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -3132,90 +3137,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3233,12 +3238,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3256,114 +3261,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3381,306 +3386,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3698,42 +3703,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3751,26 +3756,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3788,32 +3793,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="378">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1314,60 +1314,72 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -1380,12 +1392,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
     <t>sequencing_read_format</t>
   </si>
   <si>
@@ -1509,7 +1515,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:26:16-08:00</t>
+    <t>2023-11-24T09:55:42-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1812,30 +1818,30 @@
         <v>307</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="AV2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +1957,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$12</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2750,7 +2756,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2850,6 +2856,14 @@
       </c>
       <c r="B12" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2867,10 +2881,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -2891,18 +2905,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -2915,10 +2929,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2952,18 +2966,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
@@ -2984,66 +2998,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3096,30 +3110,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
+++ b/rnaseq/v4.0.0/rnaseq-v4.0.0.xlsx
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="400">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -687,6 +687,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -729,6 +741,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -765,6 +789,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -798,6 +828,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -816,18 +852,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -852,6 +912,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -912,6 +978,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1404,12 +1476,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1515,7 +1581,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:55:42-08:00</t>
+    <t>2024-01-29T14:13:23-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1643,54 +1709,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="14.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="13.0546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="10.45703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="9.27734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="8.875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="17.390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="30.11328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="28.9765625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="27.81640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="28.0625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="25.5859375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="24.42578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="26.8671875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="25.70703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="25.44140625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="24.28125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="13.09375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="40.37109375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="32.83203125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" style="37" width="21.18359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" style="38" width="19.3046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" style="39" width="19.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" style="41" width="28.66015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" style="42" width="22.09375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" style="43" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" style="44" width="19.6484375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" style="45" width="16.19140625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" style="46" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" style="47" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" style="48" width="25.23046875" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" style="49" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="12.27734375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="11.26171875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="10.9140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="9.01953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="8.00390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.65625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="25.9765625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="24.99609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="23.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="20.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="24.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="21.0703125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="23.17578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="22.17578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="21.9453125" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="20.9453125" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="11.296875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="34.82421875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="28.32421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" style="37" width="18.2734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" style="38" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" style="39" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" style="41" width="24.72265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" style="42" width="19.05859375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" style="43" width="19.78125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" style="44" width="16.94921875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" style="45" width="13.96484375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" style="46" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" style="47" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" style="48" width="21.765625" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" style="49" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1716,132 +1782,132 @@
         <v>98</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>368</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
-      <c r="AV2" t="s">
-        <v>369</v>
+      <c r="AV2" t="s" s="49">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -1856,10 +1922,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1873,7 +1939,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_offset'!$A$1:$A$6</formula1>
@@ -1984,27 +2050,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
+      <c r="A3" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2021,33 +2087,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>234</v>
+      <c r="A1" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>236</v>
+      <c r="A4" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>237</v>
+      <c r="A5" t="s" s="0">
+        <v>261</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>238</v>
+      <c r="A6" t="s" s="0">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2064,18 +2130,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>236</v>
+      <c r="A3" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2092,27 +2158,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
+      <c r="A3" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2129,28 +2195,28 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>242</v>
+      <c r="A1" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>225</v>
+      <c r="A3" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>243</v>
+      <c r="A4" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>244</v>
+      <c r="A5" t="s" s="0">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2167,43 +2233,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" t="s">
-        <v>247</v>
+      <c r="A1" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>271</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" t="s">
-        <v>249</v>
+      <c r="A2" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
+      <c r="A3" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
+      <c r="A4" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>277</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" t="s">
-        <v>255</v>
+      <c r="A5" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2220,11 +2286,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
+      <c r="A1" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2241,11 +2307,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
+      <c r="A1" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2262,11 +2328,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
+      <c r="A1" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2283,19 +2349,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" t="s">
-        <v>272</v>
+      <c r="A1" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>274</v>
+      <c r="A2" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2312,274 +2378,274 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -2597,19 +2663,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" t="s">
-        <v>277</v>
+      <c r="A1" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>279</v>
+      <c r="A2" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2626,59 +2692,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
+      <c r="A1" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>286</v>
+      <c r="A2" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>310</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
+      <c r="A3" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" t="s">
-        <v>290</v>
+      <c r="A4" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>314</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" t="s">
-        <v>292</v>
+      <c r="A5" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>316</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" t="s">
-        <v>294</v>
+      <c r="A6" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" t="s">
-        <v>296</v>
+      <c r="A7" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2695,35 +2761,35 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" t="s">
-        <v>299</v>
+      <c r="A1" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>323</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>301</v>
+      <c r="A3" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>325</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
+      <c r="A4" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2740,12 +2806,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -2763,107 +2829,107 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" t="s">
-        <v>309</v>
+      <c r="A1" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>333</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" t="s">
-        <v>311</v>
+      <c r="A2" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>335</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
+      <c r="A3" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>337</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
+      <c r="A4" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>339</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" t="s">
-        <v>317</v>
+      <c r="A5" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
+      <c r="A6" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>343</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>321</v>
+      <c r="A7" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" t="s">
-        <v>323</v>
+      <c r="A8" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>347</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>325</v>
+      <c r="A9" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>349</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" t="s">
-        <v>327</v>
+      <c r="A10" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>351</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" t="s">
-        <v>329</v>
+      <c r="A11" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>353</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" t="s">
-        <v>331</v>
+      <c r="A12" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>355</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" t="s">
-        <v>333</v>
+      <c r="A13" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2880,59 +2946,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" t="s">
-        <v>339</v>
+      <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
+      <c r="A2" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" t="s">
-        <v>341</v>
+      <c r="A4" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>363</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B5" t="s">
-        <v>343</v>
+      <c r="A5" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>365</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
+      <c r="A6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>128</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>345</v>
+      <c r="A7" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2949,115 +3015,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
+      <c r="A1" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" t="s">
-        <v>348</v>
+      <c r="A3" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" t="s">
-        <v>350</v>
+      <c r="A4" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>372</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" t="s">
-        <v>183</v>
+      <c r="A5" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>185</v>
+      <c r="A6" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>352</v>
+      <c r="A7" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>374</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" t="s">
-        <v>354</v>
+      <c r="A8" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>376</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" t="s">
-        <v>356</v>
+      <c r="A9" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>378</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" t="s">
-        <v>358</v>
+      <c r="A10" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>380</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" t="s">
-        <v>360</v>
+      <c r="A11" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>382</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" t="s">
-        <v>362</v>
+      <c r="A12" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>384</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" t="s">
-        <v>364</v>
+      <c r="A13" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>386</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" t="s">
-        <v>366</v>
+      <c r="A14" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3074,19 +3140,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" t="s">
-        <v>288</v>
+      <c r="A1" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>284</v>
+      <c r="A2" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3102,38 +3168,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" t="s">
-        <v>376</v>
+      <c r="A1" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>398</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" t="s">
-        <v>377</v>
+      <c r="A2" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3150,90 +3216,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>94</v>
       </c>
     </row>
@@ -3251,12 +3317,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -3267,122 +3333,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3392,314 +3498,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
+      <c r="A1" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+      <c r="A2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
+      <c r="A3" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
+      <c r="A4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
+      <c r="A5" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
+      <c r="A6" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
+      <c r="A7" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
+      <c r="A8" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="A9" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
+      <c r="A10" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
+      <c r="A11" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
+      <c r="A12" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="A13" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
+      <c r="A14" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
+      <c r="A15" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
+      <c r="A16" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
+      <c r="A17" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
+      <c r="A18" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
+      <c r="A19" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
+      <c r="A20" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
+      <c r="A21" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
+      <c r="A22" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
+      <c r="A23" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
+      <c r="A24" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
+      <c r="A25" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" t="s">
-        <v>179</v>
+      <c r="A26" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
+      <c r="A27" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
+      <c r="A28" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
+      <c r="A29" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
+      <c r="A30" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
+      <c r="A31" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
+      <c r="A32" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
+      <c r="A33" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
+      <c r="A34" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>197</v>
+      <c r="A35" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
+      <c r="A36" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
+      <c r="A37" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
+      <c r="A38" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3716,43 +3878,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
+      <c r="A4" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
+      <c r="A5" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3769,27 +3931,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" t="s">
-        <v>209</v>
+      <c r="A1" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
+      <c r="A2" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>213</v>
+      <c r="A3" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3806,33 +3968,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
+      <c r="A2" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>224</v>
+      <c r="A4" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>225</v>
+      <c r="A5" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>226</v>
+      <c r="A6" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
